--- a/data/trans_orig/P14A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BBB170-3EAD-4043-A16B-CDC1AA3E1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4EF57C2-9B20-4EA6-9CE8-F84DFEC25FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C39B38F-024B-4A7D-9264-CAE6E41426D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A028074A-D94D-4D94-8AC6-2F4B091B7EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
   <si>
     <t>Población que recibe medicación o terapia por mala circulación en 2012 (Tasa respuesta: 6,36%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>89,34%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>10,66%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>90,97%</t>
   </si>
   <si>
-    <t>70,51%</t>
+    <t>71,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,19 +147,19 @@
     <t>64,55%</t>
   </si>
   <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>9,03%</t>
@@ -168,25 +168,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,49%</t>
+    <t>28,48%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,16 +201,13 @@
     <t>79,29%</t>
   </si>
   <si>
-    <t>44,66%</t>
+    <t>44,13%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>56,87%</t>
   </si>
   <si>
     <t>19,65%</t>
@@ -222,70 +219,67 @@
     <t>20,71%</t>
   </si>
   <si>
-    <t>55,34%</t>
+    <t>55,87%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>43,13%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -297,109 +291,109 @@
     <t>77,55%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>70,87%</t>
@@ -408,19 +402,16 @@
     <t>40,13%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>29,13%</t>
@@ -429,34 +420,34 @@
     <t>59,87%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>85,1%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>67,38%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>74,53%</t>
@@ -465,28 +456,31 @@
     <t>69,59%</t>
   </si>
   <si>
-    <t>79,42%</t>
+    <t>79,39%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>32,62%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>20,61%</t>
   </si>
   <si>
     <t>30,41%</t>
@@ -901,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D23E9-FF8C-4053-A8AE-9FDC84FB7800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E094D8-E939-439F-931E-9AEDE9A020B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1371,7 +1365,7 @@
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1386,13 +1380,13 @@
         <v>986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1401,13 +1395,13 @@
         <v>1917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1416,13 +1410,13 @@
         <v>2902</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,13 +1484,13 @@
         <v>93599</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -1505,13 +1499,13 @@
         <v>250204</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>317</v>
@@ -1520,13 +1514,13 @@
         <v>343802</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,13 +1535,13 @@
         <v>11256</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -1556,13 +1550,13 @@
         <v>95628</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -1571,13 +1565,13 @@
         <v>106885</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1627,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AFC750-98D4-4621-B54B-93789DE0C3CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5599C9-4E04-447E-B98E-4AEAF08FE3BF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1669,7 +1663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1776,13 +1770,13 @@
         <v>36803</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -1791,13 +1785,13 @@
         <v>121084</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>143</v>
@@ -1806,13 +1800,13 @@
         <v>157887</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1821,13 @@
         <v>10652</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -1842,13 +1836,13 @@
         <v>30813</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -1857,13 +1851,13 @@
         <v>41465</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1925,13 @@
         <v>22683</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -1946,13 +1940,13 @@
         <v>60792</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -1961,13 +1955,13 @@
         <v>83474</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1976,13 @@
         <v>7758</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -1997,13 +1991,13 @@
         <v>26792</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -2012,13 +2006,13 @@
         <v>34550</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2080,7 @@
         <v>2704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>42</v>
@@ -2101,13 +2095,13 @@
         <v>5474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2116,13 +2110,13 @@
         <v>8179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2131,7 @@
         <v>1112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>42</v>
@@ -2152,13 +2146,13 @@
         <v>8168</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2167,13 +2161,13 @@
         <v>9279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2235,13 @@
         <v>62191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -2256,13 +2250,13 @@
         <v>187350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -2271,13 +2265,13 @@
         <v>249541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2286,13 @@
         <v>19521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2307,13 +2301,13 @@
         <v>65773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -2322,13 +2316,13 @@
         <v>85294</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4EF57C2-9B20-4EA6-9CE8-F84DFEC25FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1397446-C330-49B4-AB70-F13728F2FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A028074A-D94D-4D94-8AC6-2F4B091B7EAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D1AD746-2576-4D5A-9ADF-4141042AFD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,16 +75,16 @@
     <t>89,34%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>69,0%</t>
+    <t>68,22%</t>
   </si>
   <si>
     <t>80,05%</t>
@@ -93,10 +93,10 @@
     <t>78,28%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>10,66%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>25,14%</t>
@@ -117,16 +117,16 @@
     <t>19,95%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>31,78%</t>
   </si>
   <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>90,97%</t>
   </si>
   <si>
-    <t>71,52%</t>
+    <t>66,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,19 +147,19 @@
     <t>64,55%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>9,03%</t>
@@ -168,25 +168,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,48%</t>
+    <t>33,62%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,13 +201,13 @@
     <t>79,29%</t>
   </si>
   <si>
-    <t>44,13%</t>
+    <t>42,78%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>56,87%</t>
+    <t>53,71%</t>
   </si>
   <si>
     <t>19,65%</t>
@@ -219,181 +219,181 @@
     <t>20,71%</t>
   </si>
   <si>
-    <t>55,87%</t>
+    <t>57,22%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>43,13%</t>
+    <t>46,29%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por mala circulación en 2015 (Tasa respuesta: 4,61%)</t>
+    <t>Población que recibe medicación o terapia por mala circulación en 2016 (Tasa respuesta: 4,61%)</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>70,87%</t>
@@ -402,16 +402,16 @@
     <t>40,13%</t>
   </si>
   <si>
-    <t>14,9%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>74,05%</t>
   </si>
   <si>
     <t>29,13%</t>
@@ -420,70 +420,70 @@
     <t>59,87%</t>
   </si>
   <si>
-    <t>85,1%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>25,95%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E094D8-E939-439F-931E-9AEDE9A020B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4577DCC6-BD06-473F-B135-BB988B5C6BDF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1646,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5599C9-4E04-447E-B98E-4AEAF08FE3BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80440D92-1E15-4EB6-9478-5F69741DF448}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2101,7 +2101,7 @@
         <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2110,10 +2110,10 @@
         <v>8179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>124</v>
@@ -2149,10 +2149,10 @@
         <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2161,13 +2161,13 @@
         <v>9279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
